--- a/clean_data/data_indicators.xlsx
+++ b/clean_data/data_indicators.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>indicator_label</t>
+          <t>seriesCode</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>indicator_name</t>
+          <t>seriesName</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -1922,73 +1922,73 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9851936831640192</v>
+        <v>0.9851936831606217</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9855588453656622</v>
+        <v>0.9855588453614607</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9864927214691441</v>
+        <v>0.9864927214655811</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9867604244146528</v>
+        <v>0.9867604244140143</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9872810263531373</v>
+        <v>0.9872810263508512</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9875018503117085</v>
+        <v>0.9875018503084135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9883222302301061</v>
+        <v>0.988322230224525</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9881692576226029</v>
+        <v>0.9881692576239822</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9887564767592342</v>
+        <v>0.9887564767579571</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9887688135824291</v>
+        <v>0.9887688135825314</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9886220082100192</v>
+        <v>0.9886220082161362</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9886775227378923</v>
+        <v>0.9886775227362448</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9896669133692474</v>
+        <v>0.9896669133728103</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9899050084096899</v>
+        <v>0.9899050084135208</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9899013071274305</v>
+        <v>0.9899013071305206</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9894867999860161</v>
+        <v>0.9894867999876634</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9898963728687542</v>
+        <v>0.9898963728719468</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9902393285533454</v>
+        <v>0.990239328559092</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9902380955769285</v>
+        <v>0.9902380955711818</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9902380955769285</v>
+        <v>0.9902380955711818</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9902393285533454</v>
+        <v>0.990239328559092</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9902405627062667</v>
+        <v>0.9902405627066371</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9902430298356049</v>
+        <v>0.9902430298297558</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>0.9851936831640192</v>
+        <v>0.9851936831606217</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9902430298356049</v>
+        <v>0.9902430298297558</v>
       </c>
       <c r="AG14" t="n">
         <v>0.7272727272727273</v>
@@ -3052,73 +3052,73 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4124406717591374</v>
+        <v>0.4124406716949152</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4217796972242457</v>
+        <v>0.4217796972881355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3657458030571372</v>
+        <v>0.3657458030508475</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4505762649794763</v>
+        <v>0.4505762649152542</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3768644171246035</v>
+        <v>0.376864417118644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3502203731213593</v>
+        <v>0.3502203730508475</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3422711905786558</v>
+        <v>0.3422711905084745</v>
       </c>
       <c r="H24" t="n">
         <v>0.336864406779661</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3331186326883609</v>
+        <v>0.3331186327118645</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3088643995382018</v>
+        <v>0.3088643994915254</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3151525723732136</v>
+        <v>0.3151525723728815</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3062711812682086</v>
+        <v>0.3062711811864408</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2903389364986101</v>
+        <v>0.290338936440678</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2907965708587136</v>
+        <v>0.2907965708474577</v>
       </c>
       <c r="O24" t="n">
-        <v>0.301559318930417</v>
+        <v>0.3015593189830509</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3192372726181814</v>
+        <v>0.3192372725423729</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3237457275390627</v>
+        <v>0.3237457274576271</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3606610055697169</v>
+        <v>0.3606610055932204</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3285762980832899</v>
+        <v>0.3285762981355933</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3745762453240863</v>
+        <v>0.3745762452542373</v>
       </c>
       <c r="U24" t="n">
-        <v>0.405050891940878</v>
+        <v>0.4050508918644068</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4067288414906662</v>
+        <v>0.4067288415254238</v>
       </c>
       <c r="W24" t="n">
-        <v>0.4084914902509271</v>
+        <v>0.4084914901694915</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>0.4124406717591374</v>
+        <v>0.4124406716949152</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4084914902509271</v>
+        <v>0.4084914901694915</v>
       </c>
       <c r="AG24" t="n">
         <v>0.5454545454545454</v>
@@ -3165,73 +3165,73 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8370226640917346</v>
+        <v>0.8370226640776699</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8370226640917346</v>
+        <v>0.8370226640776699</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8370226640917346</v>
+        <v>0.8370226640776699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8370064917505761</v>
+        <v>0.8370064917475729</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8369740853417654</v>
+        <v>0.836974085275081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6050809224446618</v>
+        <v>0.6050809224919094</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6051617841504546</v>
+        <v>0.6051617841423949</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6051941905592638</v>
+        <v>0.6051941906148868</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6051617841504546</v>
+        <v>0.6051617841423949</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6050970947858204</v>
+        <v>0.6050970948220065</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5843527340194563</v>
+        <v>0.5843527339805825</v>
       </c>
       <c r="L25" t="n">
-        <v>0.58417477654022</v>
+        <v>0.5841747765372169</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5839644126521731</v>
+        <v>0.5839644126213592</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5837217040818108</v>
+        <v>0.5837217040453074</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5834951678526068</v>
+        <v>0.5834951677993528</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5500809505919434</v>
+        <v>0.5500809506472492</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5499676207508479</v>
+        <v>0.5499676207119741</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5302426730159046</v>
+        <v>0.5302426729773462</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5302426730159046</v>
+        <v>0.5302426729773462</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5191747424671957</v>
+        <v>0.5191747423948221</v>
       </c>
       <c r="U25" t="n">
-        <v>0.519207087149513</v>
+        <v>0.5192070872168285</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5192394318318302</v>
+        <v>0.5192394318770227</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5192880723082913</v>
+        <v>0.5192880723300971</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>0.8370226640917346</v>
+        <v>0.8370226640776699</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.5192880723082913</v>
+        <v>0.5192880723300971</v>
       </c>
       <c r="AG25" t="n">
         <v>0.2272727272727273</v>
@@ -8024,73 +8024,73 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6548015856869008</v>
+        <v>0.6548015857142857</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6547619249454893</v>
+        <v>0.654761925</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6547222137451177</v>
+        <v>0.6547222137566138</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6546693327565675</v>
+        <v>0.6546693328042328</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6545899608147844</v>
+        <v>0.6545899608465608</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6544973686258637</v>
+        <v>0.6544973686507936</v>
       </c>
       <c r="G68" t="n">
-        <v>0.654378285483709</v>
+        <v>0.6543782854497354</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6542460325533757</v>
+        <v>0.6542460325396825</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6541137796230423</v>
+        <v>0.6541137796296296</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6540079167280252</v>
+        <v>0.6540079166666667</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6539550357394748</v>
+        <v>0.6539550357142857</v>
       </c>
       <c r="L68" t="n">
-        <v>0.6539418154923373</v>
+        <v>0.6539418154761905</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6539814762337499</v>
+        <v>0.6539814761904762</v>
       </c>
       <c r="N68" t="n">
-        <v>0.635833356746291</v>
+        <v>0.6358333567460317</v>
       </c>
       <c r="O68" t="n">
-        <v>0.6452248790276746</v>
+        <v>0.645224878968254</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6515476388275317</v>
+        <v>0.6515476388888889</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6366799066937169</v>
+        <v>0.6366799067460317</v>
       </c>
       <c r="R68" t="n">
-        <v>0.6505158540433055</v>
+        <v>0.6505158541005291</v>
       </c>
       <c r="S68" t="n">
-        <v>0.6653174849414325</v>
+        <v>0.6653174849206349</v>
       </c>
       <c r="T68" t="n">
-        <v>0.6755423369231057</v>
+        <v>0.675542336904762</v>
       </c>
       <c r="U68" t="n">
-        <v>0.6824206498564868</v>
+        <v>0.6824206498677249</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6778307011518532</v>
+        <v>0.6778307011904762</v>
       </c>
       <c r="W68" t="n">
-        <v>0.6778174809047156</v>
+        <v>0.6778174809523809</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -8120,10 +8120,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>0.6548015856869008</v>
+        <v>0.6548015857142857</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.6778174809047156</v>
+        <v>0.6778174809523809</v>
       </c>
       <c r="AG68" t="n">
         <v>0.3181818181818182</v>
